--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3876.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3876.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.734207943849072</v>
+        <v>2.60814356803894</v>
       </c>
       <c r="B1">
-        <v>2.681457407136666</v>
+        <v>2.472468137741089</v>
       </c>
       <c r="C1">
-        <v>2.85059029823698</v>
+        <v>2.769110441207886</v>
       </c>
       <c r="D1">
-        <v>3.244949972505073</v>
+        <v>3.718555450439453</v>
       </c>
       <c r="E1">
-        <v>2.825306047471164</v>
+        <v>5.173699378967285</v>
       </c>
     </row>
   </sheetData>
